--- a/Data-File-S2_PrimerSeq.xlsx
+++ b/Data-File-S2_PrimerSeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikamagnusson/Documents/umn.pmb/SpringerLab/manuscripts/mu.pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD7559-150B-B84F-B7F4-BDB8C0946953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F52AE-96F3-EB4A-BC4E-D74718D84C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22540" yWindow="940" windowWidth="27640" windowHeight="16940" xr2:uid="{633E3EBA-CBF2-CB43-B55D-2B5564E938FD}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
   <si>
     <t>Primers</t>
   </si>
@@ -441,19 +441,193 @@
   </si>
   <si>
     <t>Seq_5'-3'</t>
+  </si>
+  <si>
+    <t>UBCP_cDNA_F1</t>
+  </si>
+  <si>
+    <t>TTCCACCCGAACATCAACAGCAAC</t>
+  </si>
+  <si>
+    <t>UBCP_cDNA_R1</t>
+  </si>
+  <si>
+    <t>CCTGTCGGTCTTGTACATGTGAGC</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>RT-qPCR housekeeping gene</t>
+  </si>
+  <si>
+    <t>qrp01</t>
+  </si>
+  <si>
+    <t>qrp03</t>
+  </si>
+  <si>
+    <t>qrp17</t>
+  </si>
+  <si>
+    <t>qrp09</t>
+  </si>
+  <si>
+    <t>qrp13</t>
+  </si>
+  <si>
+    <t>qrp15</t>
+  </si>
+  <si>
+    <t>qrp51</t>
+  </si>
+  <si>
+    <t>qrp53</t>
+  </si>
+  <si>
+    <t>qrp59</t>
+  </si>
+  <si>
+    <t>qrp55</t>
+  </si>
+  <si>
+    <t>qrp57</t>
+  </si>
+  <si>
+    <t>qrp45</t>
+  </si>
+  <si>
+    <t>qrp49</t>
+  </si>
+  <si>
+    <t>qrp02</t>
+  </si>
+  <si>
+    <t>qrp04</t>
+  </si>
+  <si>
+    <t>qrp18</t>
+  </si>
+  <si>
+    <t>qrp10</t>
+  </si>
+  <si>
+    <t>qrp14</t>
+  </si>
+  <si>
+    <t>qrp16</t>
+  </si>
+  <si>
+    <t>qrp52</t>
+  </si>
+  <si>
+    <t>qrp54</t>
+  </si>
+  <si>
+    <t>qrp60</t>
+  </si>
+  <si>
+    <t>qrp56</t>
+  </si>
+  <si>
+    <t>qrp58</t>
+  </si>
+  <si>
+    <t>qrp46</t>
+  </si>
+  <si>
+    <t>qrp50</t>
+  </si>
+  <si>
+    <t>AAACTCCTTTGGGCTCTTGTC</t>
+  </si>
+  <si>
+    <t>GGTTGTTCTCCTTTGGGTGAC</t>
+  </si>
+  <si>
+    <t>CATTTGGTGATCAATCTTGAGG</t>
+  </si>
+  <si>
+    <t>ACGGAACTTGTTGTGCAGATTC</t>
+  </si>
+  <si>
+    <t>CTGACCTGACGCGGACTGAC</t>
+  </si>
+  <si>
+    <t>CCATCCCAAACGAGCCCATG</t>
+  </si>
+  <si>
+    <t>TTCTTCCGTATCCGCGTCAATC</t>
+  </si>
+  <si>
+    <t>ATACGTTCTCTTGCCAAGCTTC</t>
+  </si>
+  <si>
+    <t>AGGAGGATTTCGATGGGTTCAC</t>
+  </si>
+  <si>
+    <t>TTGACAGAAGAGAGAGAGCACG</t>
+  </si>
+  <si>
+    <t>GGTTTCTCCTTCGGAATGCTC</t>
+  </si>
+  <si>
+    <t>CAATCCGGACTGCTGCTCTG</t>
+  </si>
+  <si>
+    <t>GCCAGTTCCAAGATGTGCATAG</t>
+  </si>
+  <si>
+    <t>TTCGGTCTCATCTTCGTTCCTG</t>
+  </si>
+  <si>
+    <t>TTCACGAAACCGGGTCCTTATC</t>
+  </si>
+  <si>
+    <t>CTCTGTTCTGGTCCTTCGTCAG</t>
+  </si>
+  <si>
+    <t>AATCTCAGTCCACGTTCATCCC</t>
+  </si>
+  <si>
+    <t>AGGGAGGAGTGCAAACTTCAAG</t>
+  </si>
+  <si>
+    <t>CCTGTAGTCTCCTCACTCTTCC</t>
+  </si>
+  <si>
+    <t>CAGATCCCAGTTGTTGAAGCAG</t>
+  </si>
+  <si>
+    <t>CCATCACAACAGCAGCATCTAC</t>
+  </si>
+  <si>
+    <t>TCCTTCTCTTGGATCTTGGCAC</t>
+  </si>
+  <si>
+    <t>CAAGGGGATACTACCGATGCAG</t>
+  </si>
+  <si>
+    <t>GGAACTTGTGGCGGGTGGTG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,9 +650,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,555 +968,1788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583D509F-B4C5-0442-98BA-B5123593868D}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C853"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B60" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="1"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="1"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="1"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="1"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="1"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="1"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="1"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="1"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="1"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="1"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="1"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="1"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="1"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="1"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="1"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="1"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="1"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="1"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="1"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="1"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="1"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="1"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="1"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="1"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="1"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="1"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="1"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="1"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="1"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="1"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="1"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="1"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="1"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="1"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="1"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="1"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="1"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="1"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="1"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="1"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="1"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="1"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="1"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="1"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="1"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="1"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="1"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="1"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="1"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="1"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="1"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="1"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="1"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="1"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="1"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="1"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="1"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="1"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="1"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="1"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="1"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="1"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="1"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="1"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="1"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="1"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="1"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="1"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="1"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="1"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="1"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="1"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="1"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="1"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="1"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="1"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="1"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="1"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" s="1"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="1"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="1"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" s="1"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="1"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="1"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="1"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="1"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="1"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="1"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="1"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="1"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="1"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="1"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="1"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="1"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="1"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="1"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="1"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="1"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="1"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="1"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="1"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="1"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="1"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="1"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="1"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="1"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="1"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="1"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="1"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="1"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="1"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="1"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="1"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="1"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="1"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="1"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="1"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="1"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="1"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="1"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="1"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="1"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="1"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="1"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="1"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="1"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="1"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="1"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="1"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="1"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="1"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" s="1"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="1"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="1"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="1"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="1"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" s="1"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="1"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="1"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="1"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="1"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="1"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="1"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="1"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="1"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="1"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="1"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="1"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="1"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="1"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="1"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="1"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="1"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="1"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="1"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="1"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="1"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="1"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="1"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="1"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="1"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="1"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="1"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="1"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="1"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="1"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="1"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="1"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="1"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="1"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="1"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="1"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="1"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="1"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="1"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="1"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="1"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="1"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="1"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="1"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="1"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="1"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="1"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="1"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="1"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="1"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="1"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="1"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" s="1"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="1"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="1"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="1"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="1"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" s="1"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="1"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="1"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="1"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="1"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="1"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="1"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="1"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="1"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="1"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="1"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="1"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="1"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="1"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="1"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="1"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="1"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="1"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="1"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="1"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="1"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="1"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="1"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="1"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="1"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="1"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="1"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="1"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="1"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="1"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="1"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="1"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="1"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="1"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="1"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="1"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="1"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="1"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="1"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="1"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="1"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="1"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="1"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="1"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="1"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="1"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="1"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="1"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="1"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="1"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="1"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="1"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" s="1"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="1"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="1"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="1"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="1"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" s="1"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="1"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="1"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="1"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="1"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="1"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="1"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="1"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="1"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="1"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="1"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="1"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="1"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" s="1"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" s="1"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" s="1"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" s="1"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" s="1"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" s="1"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" s="1"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" s="1"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" s="1"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" s="1"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" s="1"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" s="1"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" s="1"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" s="1"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" s="1"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" s="1"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" s="1"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" s="1"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" s="1"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" s="1"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" s="1"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" s="1"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" s="1"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" s="1"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" s="1"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" s="1"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" s="1"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" s="1"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" s="1"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" s="1"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" s="1"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" s="1"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C95">
+    <sortCondition ref="A2:A95"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>